--- a/data/trans_orig/P36B13_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_2023-Provincia-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+          <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,99%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>44,8%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>54,31%</t>
+          <t>55,36%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>41,75%</t>
+          <t>41,31%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>49,04%</t>
+          <t>49,16%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>44,6%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>57,29%</t>
+          <t>57,23%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>37,92%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>47,41%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>50,81%</t>
+          <t>50,36%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>10,72%</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -951,7 +951,7 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>40,37%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>34,39%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,19%</t>
+          <t>50,33%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,35%</t>
+          <t>44,59%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>45,92%</t>
+          <t>46,13%</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>26,21%</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>39,4%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>34,43%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,23%</t>
+          <t>42,89%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>32,11%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>41,47%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>33,62%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>40,71%</t>
+          <t>40,42%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>30,88%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>27,19%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>31,23%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>37,65%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>51,49%</t>
+          <t>51,74%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>44,58%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>37,21%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>45,99%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>34,89%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>37,32%</t>
+          <t>35,55%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>33,92%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,63%</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,79%</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>14,1%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>54,9%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>66,96%</t>
+          <t>67,15%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>62,27%</t>
+          <t>62,89%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>71,7%</t>
+          <t>71,61%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>60,72%</t>
+          <t>60,77%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>68,51%</t>
+          <t>68,29%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>26,8%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,45%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>45,11%</t>
+          <t>45,23%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>39,22%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>43,5%</t>
+          <t>43,97%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>38,78%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>49,17%</t>
+          <t>49,01%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>37,21%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>44,83%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>24,19%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,74%</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>37,8%</t>
+          <t>37,77%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>66,41%</t>
+          <t>67,21%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>34,47%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>55,94%</t>
+          <t>56,66%</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>35,43%</t>
+          <t>35,68%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>35,66%</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>24,3%</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,25%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,2%</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>25,94%</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3793,12 +3793,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>34,48%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3814,12 +3814,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>31,65%</t>
         </is>
       </c>
     </row>
@@ -3843,12 +3843,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>37,26%</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>29,31%</t>
+          <t>29,28%</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="M48" s="2" t="n">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>28,98%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>35,5%</t>
         </is>
       </c>
     </row>
@@ -3914,12 +3914,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>12,26%</t>
         </is>
       </c>
     </row>
@@ -3985,12 +3985,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,54%</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4152,12 +4152,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>33,27%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>34,45%</t>
         </is>
       </c>
     </row>
@@ -4202,12 +4202,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>36,16%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>40,26%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>39,45%</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4294,12 +4294,12 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4315,12 +4315,12 @@
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>25,82%</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4365,12 +4365,12 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
@@ -4457,12 +4457,12 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
         <v>8721</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>7178572</v>
+        <v>7178571</v>
       </c>
       <c r="O57" s="2" t="inlineStr">
         <is>
